--- a/zap.xlsx
+++ b/zap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="mySheetName" sheetId="1" r:id="rId1"/>
+    <sheet name="OWASP Zap" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -375,54 +375,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Risk level</v>
+        <v>Summary of alerts</v>
       </c>
       <c r="B1" t="str">
-        <v>Number of alerts</v>
+        <v/>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>High</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>Risk level</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Number of alerts</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
         <v>Informational</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Alert details</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>High</v>
+      </c>
+      <c r="B9" t="str">
+        <v>PII Disclosure</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B10" t="str">
+        <v>The response contains Personally Identifiable Information, such as CC number, SSN and similar sensitive data.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Application Error Disclosure</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B12" t="str">
+        <v>This page contains an error/warning message that may disclose sensitive information like the location of the file that produced the unhandled exception. This information can be used to launch further attacks against the web application. The alert could be a false positive if the error message is found inside a documentation page.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Content Security Policy (CSP) Header Not Set</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Content Security Policy (CSP) is an added layer of security that helps to detect and mitigate certain types of attacks, including Cross Site Scripting (XSS) and data injection attacks. These attacks are used for everything from data theft to site defacement or distribution of malware. CSP provides a set of standard HTTP headers that allow website owners to declare approved sources of content that browsers should be allowed to load on that page — covered types are JavaScript, CSS, HTML frames, fonts, images and embeddable objects such as Java applets, ActiveX, audio and video files.</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Cross-Domain Misconfiguration</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Web browser data loading may be possible, due to a Cross Origin Resource Sharing (CORS) misconfiguration on the web server</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Source Code Disclosure - SQL</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Application Source Code was disclosed by the web server - SQL</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Sub Resource Integrity Attribute Missing</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B20" t="str">
+        <v xml:space="preserve">The integrity attribute is missing on a script or link tag served by an external server. The integrity tag prevents an attacker who have gained access to this server from injecting a malicious content. </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Absence of Anti-CSRF Tokens</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B22" t="str">
+        <v>No Anti-CSRF tokens were found in a HTML submission form.&lt;/p&gt;&lt;p&gt;A cross-site request forgery is an attack that involves forcing a victim to send an HTTP request to a target destination without their knowledge or intent in order to perform an action as the victim. The underlying cause is application functionality using predictable URL/form actions in a repeatable way. The nature of the attack is that CSRF exploits the trust that a web site has for a user. By contrast, cross-site scripting (XSS) exploits the trust that a user has for a web site. Like XSS, CSRF attacks are not necessarily cross-site, but they can be. Cross-site request forgery is also known as CSRF, XSRF, one-click attack, session riding, confused deputy, and sea surf.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;CSRF attacks are effective in a number of situations, including:&lt;/p&gt;&lt;p&gt;    * The victim has an active session on the target site.&lt;/p&gt;&lt;p&gt;    * The victim is authenticated via HTTP auth on the target site.&lt;/p&gt;&lt;p&gt;    * The victim is on the same local network as the target site.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;CSRF has primarily been used to perform an action against a target site using the victim's privileges, but recent techniques have been discovered to disclose information by gaining access to the response. The risk of information disclosure is dramatically increased when the target site is vulnerable to XSS, because XSS can be used as a platform for CSRF, allowing the attack to operate within the bounds of the same-origin policy.</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Cross-Domain JavaScript Source File Inclusion</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B24" t="str">
+        <v>The page includes one or more script files from a third-party domain.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Dangerous JS Functions</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B26" t="str">
+        <v>A dangerous JS function seems to be in use that would leave the site vulnerable.</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Incomplete or No Cache-control Header Set</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B28" t="str">
+        <v>The cache-control header has not been set properly or is missing, allowing the browser and proxies to cache content.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Information Disclosure - Debug Error Messages</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B30" t="str">
+        <v>The response appeared to contain common error messages returned by platforms such as ASP.NET, and Web-servers such as IIS and Apache. You can configure the list of common debug messages.</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Permissions Policy Header Not Set</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Permissions Policy Header is an added layer of security that helps to restrict from unauthorized access or usage of browser/client features by web resources. This policy ensures the user privacy by limiting or specifying the features of the browsers can be used by the web resources. Permissions Policy provides a set of standard HTTP headers that allow website owners to limit which features of browsers can be used by the page such as camera, microphone, location, full screen etc.</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Private IP Disclosure</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B34" t="str">
+        <v>A private IP (such as 10.x.x.x, 172.x.x.x, 192.168.x.x) or an Amazon EC2 private hostname (for example, ip-10-0-56-78) has been found in the HTTP response body. This information might be helpful for further attacks targeting internal systems.</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Strict-Transport-Security Header Not Set</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B36" t="str">
+        <v>HTTP Strict Transport Security (HSTS) is a web security policy mechanism whereby a web server declares that complying user agents (such as a web browser) are to interact with it using only secure HTTPS connections (i.e. HTTP layered over TLS/SSL). HSTS is an IETF standards track protocol and is specified in RFC 6797.</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Timestamp Disclosure - Unix</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B38" t="str">
+        <v>A timestamp was disclosed by the application/web server - Unix</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Low</v>
+      </c>
+      <c r="B39" t="str">
+        <v>X-Content-Type-Options Header Missing</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B40" t="str">
+        <v>The Anti-MIME-Sniffing header X-Content-Type-Options was not set to 'nosniff'. This allows older versions of Internet Explorer and Chrome to perform MIME-sniffing on the response body, potentially causing the response body to be interpreted and displayed as a content type other than the declared content type. Current (early 2014) and legacy versions of Firefox will use the declared content type (if one is set), rather than performing MIME-sniffing.</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Informational</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Base64 Disclosure</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Base64 encoded data was disclosed by the application/web server. Note: in the interests of performance not all base64 strings in the response were analyzed individually, the entire response should be looked at by the analyst/security team/developer(s).</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Informational</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Content-Type Header Missing</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B44" t="str">
+        <v>The Content-Type header was either missing or empty.</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Informational</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Information Disclosure - Suspicious Comments</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B46" t="str">
+        <v>The response appears to contain suspicious comments which may help an attacker. Note: Matches made within script blocks or files are against the entire content not only comments.</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Informational</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Modern Web Application</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B48" t="str">
+        <v>The application appears to be a modern web application. If you need to explore it automatically then the Ajax Spider may well be more effective than the standard one.</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Informational</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Retrieved from Cache</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B50" t="str">
+        <v xml:space="preserve">The content was retrieved from a shared cache. If the response data is sensitive, personal or user-specific, this may result in sensitive information being leaked. In some cases, this may even result in a user gaining complete control of the session of another user, depending on the configuration of the caching components in use in their environment. This is primarily an issue where caching servers such as "proxy" caches are configured on the local network. This configuration is typically found in corporate or educational environments, for instance. </v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Informational</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Storable and Cacheable Content</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B52" t="str">
+        <v>The response contents are storable by caching components such as proxy servers, and may be retrieved directly from the cache, rather than from the origin server by the caching servers, in response to similar requests from other users.  If the response data is sensitive, personal or user-specific, this may result in sensitive information being leaked. In some cases, this may even result in a user gaining complete control of the session of another user, depending on the configuration of the caching components in use in their environment. This is primarily an issue where "shared" caching servers such as "proxy" caches are configured on the local network. This configuration is typically found in corporate or educational environments, for instance.</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Informational</v>
+      </c>
+      <c r="B53" t="str">
+        <v>User Controllable HTML Element Attribute (Potential XSS)</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Description</v>
+      </c>
+      <c r="B54" t="str">
+        <v>This check looks at user-supplied input in query string parameters and POST data to identify where certain HTML attribute values might be controlled. This provides hot-spot detection for XSS (cross-site scripting) that will require further review by a security analyst to determine exploitability.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B54"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/zap.xlsx
+++ b/zap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="OWASP Zap" sheetId="1" r:id="rId1"/>
+    <sheet name="Mobsf" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -375,70 +375,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Summary of alerts</v>
+        <v>File information</v>
       </c>
       <c r="B1" t="str">
         <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Risk level</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Number of alerts</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>High</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>filename</v>
+      </c>
+      <c r="B3" t="str">
+        <v>tiny.apk</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Medium</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
+        <v>size</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0.0MB</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Informational</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
+        <v>App information</v>
+      </c>
+      <c r="B6" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Alert details</v>
+        <v>App_name</v>
       </c>
       <c r="B8" t="str">
         <v/>
@@ -446,375 +430,116 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>High</v>
+        <v>Identifier</v>
       </c>
       <c r="B9" t="str">
-        <v>PII Disclosure</v>
+        <v>b.a</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Description</v>
+        <v>SDK_Name</v>
       </c>
       <c r="B10" t="str">
-        <v>The response contains Personally Identifiable Information, such as CC number, SSN and similar sensitive data.</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Medium</v>
+        <v>version</v>
       </c>
       <c r="B11" t="str">
-        <v>Application Error Disclosure</v>
+        <v>v3.5.2 Beta</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Description</v>
+        <v>Platform_version</v>
       </c>
       <c r="B12" t="str">
-        <v>This page contains an error/warning message that may disclose sensitive information like the location of the file that produced the unhandled exception. This information can be used to launch further attacks against the web application. The alert could be a false positive if the error message is found inside a documentation page.</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="B13" t="str">
-        <v>Content Security Policy (CSP) Header Not Set</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Description</v>
+        <v>AppSec</v>
       </c>
       <c r="B14" t="str">
-        <v>Content Security Policy (CSP) is an added layer of security that helps to detect and mitigate certain types of attacks, including Cross Site Scripting (XSS) and data injection attacks. These attacks are used for everything from data theft to site defacement or distribution of malware. CSP provides a set of standard HTTP headers that allow website owners to declare approved sources of content that browsers should be allowed to load on that page — covered types are JavaScript, CSS, HTML frames, fonts, images and embeddable objects such as Java applets, ActiveX, audio and video files.</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Medium</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Cross-Domain Misconfiguration</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Description</v>
+        <v>title</v>
       </c>
       <c r="B16" t="str">
-        <v>Web browser data loading may be possible, due to a Cross Origin Resource Sharing (CORS) misconfiguration on the web server</v>
+        <v>Application vulnerable to Janus Vulnerability</v>
+      </c>
+      <c r="C16" t="str">
+        <v>description</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Application is signed with v1 signature scheme, making it vulnerable to Janus vulnerability on Android 5.0-8.0, if signed only with v1 signature scheme. Applications running on Android 5.0-7.0 signed with v1, and v2/v3 scheme is also vulnerable.</v>
+      </c>
+      <c r="E16" t="str">
+        <v>riskType</v>
+      </c>
+      <c r="F16" t="str">
+        <v>high</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Medium</v>
+        <v>title</v>
       </c>
       <c r="B17" t="str">
-        <v>Source Code Disclosure - SQL</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>Certificate algorithm might be vulnerable to hash collision</v>
+      </c>
+      <c r="C17" t="str">
+        <v>description</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Application is signed with SHA1withRSA. SHA1 hash algorithm is known to have collision issues.</v>
+      </c>
+      <c r="E17" t="str">
+        <v>riskType</v>
+      </c>
+      <c r="F17" t="str">
+        <v>high</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
-        <v>Description</v>
+        <v>title</v>
       </c>
       <c r="B18" t="str">
-        <v>Application Source Code was disclosed by the web server - SQL</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Medium</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Sub Resource Integrity Attribute Missing</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B20" t="str">
-        <v xml:space="preserve">The integrity attribute is missing on a script or link tag served by an external server. The integrity tag prevents an attacker who have gained access to this server from injecting a malicious content. </v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Absence of Anti-CSRF Tokens</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B22" t="str">
-        <v>No Anti-CSRF tokens were found in a HTML submission form.&lt;/p&gt;&lt;p&gt;A cross-site request forgery is an attack that involves forcing a victim to send an HTTP request to a target destination without their knowledge or intent in order to perform an action as the victim. The underlying cause is application functionality using predictable URL/form actions in a repeatable way. The nature of the attack is that CSRF exploits the trust that a web site has for a user. By contrast, cross-site scripting (XSS) exploits the trust that a user has for a web site. Like XSS, CSRF attacks are not necessarily cross-site, but they can be. Cross-site request forgery is also known as CSRF, XSRF, one-click attack, session riding, confused deputy, and sea surf.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;CSRF attacks are effective in a number of situations, including:&lt;/p&gt;&lt;p&gt;    * The victim has an active session on the target site.&lt;/p&gt;&lt;p&gt;    * The victim is authenticated via HTTP auth on the target site.&lt;/p&gt;&lt;p&gt;    * The victim is on the same local network as the target site.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;CSRF has primarily been used to perform an action against a target site using the victim's privileges, but recent techniques have been discovered to disclose information by gaining access to the response. The risk of information disclosure is dramatically increased when the target site is vulnerable to XSS, because XSS can be used as a platform for CSRF, allowing the attack to operate within the bounds of the same-origin policy.</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Cross-Domain JavaScript Source File Inclusion</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B24" t="str">
-        <v>The page includes one or more script files from a third-party domain.</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Dangerous JS Functions</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B26" t="str">
-        <v>A dangerous JS function seems to be in use that would leave the site vulnerable.</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Incomplete or No Cache-control Header Set</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B28" t="str">
-        <v>The cache-control header has not been set properly or is missing, allowing the browser and proxies to cache content.</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Information Disclosure - Debug Error Messages</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B30" t="str">
-        <v>The response appeared to contain common error messages returned by platforms such as ASP.NET, and Web-servers such as IIS and Apache. You can configure the list of common debug messages.</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Permissions Policy Header Not Set</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B32" t="str">
-        <v>Permissions Policy Header is an added layer of security that helps to restrict from unauthorized access or usage of browser/client features by web resources. This policy ensures the user privacy by limiting or specifying the features of the browsers can be used by the web resources. Permissions Policy provides a set of standard HTTP headers that allow website owners to limit which features of browsers can be used by the page such as camera, microphone, location, full screen etc.</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Private IP Disclosure</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B34" t="str">
-        <v>A private IP (such as 10.x.x.x, 172.x.x.x, 192.168.x.x) or an Amazon EC2 private hostname (for example, ip-10-0-56-78) has been found in the HTTP response body. This information might be helpful for further attacks targeting internal systems.</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Strict-Transport-Security Header Not Set</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B36" t="str">
-        <v>HTTP Strict Transport Security (HSTS) is a web security policy mechanism whereby a web server declares that complying user agents (such as a web browser) are to interact with it using only secure HTTPS connections (i.e. HTTP layered over TLS/SSL). HSTS is an IETF standards track protocol and is specified in RFC 6797.</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Timestamp Disclosure - Unix</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B38" t="str">
-        <v>A timestamp was disclosed by the application/web server - Unix</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Low</v>
-      </c>
-      <c r="B39" t="str">
-        <v>X-Content-Type-Options Header Missing</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B40" t="str">
-        <v>The Anti-MIME-Sniffing header X-Content-Type-Options was not set to 'nosniff'. This allows older versions of Internet Explorer and Chrome to perform MIME-sniffing on the response body, potentially causing the response body to be interpreted and displayed as a content type other than the declared content type. Current (early 2014) and legacy versions of Firefox will use the declared content type (if one is set), rather than performing MIME-sniffing.</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>Informational</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Base64 Disclosure</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B42" t="str">
-        <v>Base64 encoded data was disclosed by the application/web server. Note: in the interests of performance not all base64 strings in the response were analyzed individually, the entire response should be looked at by the analyst/security team/developer(s).</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Informational</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Content-Type Header Missing</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B44" t="str">
-        <v>The Content-Type header was either missing or empty.</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>Informational</v>
-      </c>
-      <c r="B45" t="str">
-        <v>Information Disclosure - Suspicious Comments</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B46" t="str">
-        <v>The response appears to contain suspicious comments which may help an attacker. Note: Matches made within script blocks or files are against the entire content not only comments.</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Informational</v>
-      </c>
-      <c r="B47" t="str">
-        <v>Modern Web Application</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B48" t="str">
-        <v>The application appears to be a modern web application. If you need to explore it automatically then the Ajax Spider may well be more effective than the standard one.</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Informational</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Retrieved from Cache</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B50" t="str">
-        <v xml:space="preserve">The content was retrieved from a shared cache. If the response data is sensitive, personal or user-specific, this may result in sensitive information being leaked. In some cases, this may even result in a user gaining complete control of the session of another user, depending on the configuration of the caching components in use in their environment. This is primarily an issue where caching servers such as "proxy" caches are configured on the local network. This configuration is typically found in corporate or educational environments, for instance. </v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Informational</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Storable and Cacheable Content</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B52" t="str">
-        <v>The response contents are storable by caching components such as proxy servers, and may be retrieved directly from the cache, rather than from the origin server by the caching servers, in response to similar requests from other users.  If the response data is sensitive, personal or user-specific, this may result in sensitive information being leaked. In some cases, this may even result in a user gaining complete control of the session of another user, depending on the configuration of the caching components in use in their environment. This is primarily an issue where "shared" caching servers such as "proxy" caches are configured on the local network. This configuration is typically found in corporate or educational environments, for instance.</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Informational</v>
-      </c>
-      <c r="B53" t="str">
-        <v>User Controllable HTML Element Attribute (Potential XSS)</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Description</v>
-      </c>
-      <c r="B54" t="str">
-        <v>This check looks at user-supplied input in query string parameters and POST data to identify where certain HTML attribute values might be controlled. This provides hot-spot detection for XSS (cross-site scripting) that will require further review by a security analyst to determine exploitability.</v>
+        <v>Application Data can be Backed up</v>
+      </c>
+      <c r="C18" t="str">
+        <v>description</v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v xml:space="preserve">[android:allowBackup] flag is missing.
+The flag [android:allowBackup] should be set to false. By default it is set to true and allows anyone to backup your application data via adb. It allows users who have enabled USB debugging to copy application data off of the device.</v>
+      </c>
+      <c r="E18" t="str">
+        <v>riskType</v>
+      </c>
+      <c r="F18" t="str">
+        <v>warning</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
   </ignoredErrors>
 </worksheet>
 </file>